--- a/medicine/Pharmacie/Trional/Trional.xlsx
+++ b/medicine/Pharmacie/Trional/Trional.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le trional (méthylsulfonal) est un sédatif-hypnotique[3] et anesthésique GABAergique. Il a des effets similaires au sulfonal, sauf qu'il agit plus rapidement[4].
+Le trional (méthylsulfonal) est un sédatif-hypnotique et anesthésique GABAergique. Il a des effets similaires au sulfonal, sauf qu'il agit plus rapidement.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trional a été préparé et introduit par Eugen Baumann et Alfred Kast (en) en 1888[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trional a été préparé et introduit par Eugen Baumann et Alfred Kast (en) en 1888.
 Il apparaît dans Le Crime de l'Orient-Express, Dix Petits Nègres d'Agatha Christie, dans À la recherche du temps perdu (Sodome et Gomorrhe) de Marcel Proust, dans Dope (en) de Sax Rohmer.
 </t>
         </is>
